--- a/biology/Zoologie/Julianus_uruguayus/Julianus_uruguayus.xlsx
+++ b/biology/Zoologie/Julianus_uruguayus/Julianus_uruguayus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julianus uruguayus est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julianus uruguayus est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre entre 90 et 1 000 m d'altitude.[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre entre 90 et 1 000 m d'altitude., :
 en Uruguay dans les départements  de Treinta y Tres, de Cerro Largo et de Tacuarembó ;
 dans le Sud du Brésil dans les États du Rio Grande do Sul, de Santa Catarina et du Paraná ;
 en Argentine dans le Nord de la province de Corrientes.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 26 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 26 mm.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à son lieu de découverte, l'Uruguay.
 </t>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidt, 1944 : New frogs from Misiones and Uruguay. Field Museum of Natural History (Zoological Series), vol. 29,  p. 153–160 (texte intégral).</t>
         </is>
